--- a/store_monthly_demand.xlsx
+++ b/store_monthly_demand.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E104"/>
+  <dimension ref="A1:F104"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,11 @@
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
+          <t>std_demand</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
           <t>Warehouse</t>
         </is>
       </c>
@@ -474,6 +479,9 @@
         <v>1710</v>
       </c>
       <c r="E2" t="n">
+        <v>855</v>
+      </c>
+      <c r="F2" t="n">
         <v>106406</v>
       </c>
     </row>
@@ -491,6 +499,9 @@
         <v>2422.5</v>
       </c>
       <c r="E3" t="n">
+        <v>855</v>
+      </c>
+      <c r="F3" t="n">
         <v>106406</v>
       </c>
     </row>
@@ -508,6 +519,9 @@
         <v>1710</v>
       </c>
       <c r="E4" t="n">
+        <v>1045</v>
+      </c>
+      <c r="F4" t="n">
         <v>106406</v>
       </c>
     </row>
@@ -525,6 +539,9 @@
         <v>1567.5</v>
       </c>
       <c r="E5" t="n">
+        <v>1092.5</v>
+      </c>
+      <c r="F5" t="n">
         <v>106406</v>
       </c>
     </row>
@@ -542,6 +559,9 @@
         <v>3135</v>
       </c>
       <c r="E6" t="n">
+        <v>1377.5</v>
+      </c>
+      <c r="F6" t="n">
         <v>106406</v>
       </c>
     </row>
@@ -559,6 +579,9 @@
         <v>2850</v>
       </c>
       <c r="E7" t="n">
+        <v>1425</v>
+      </c>
+      <c r="F7" t="n">
         <v>106406</v>
       </c>
     </row>
@@ -576,6 +599,9 @@
         <v>712.5</v>
       </c>
       <c r="E8" t="n">
+        <v>1615</v>
+      </c>
+      <c r="F8" t="n">
         <v>106406</v>
       </c>
     </row>
@@ -593,6 +619,9 @@
         <v>2280</v>
       </c>
       <c r="E9" t="n">
+        <v>1282.5</v>
+      </c>
+      <c r="F9" t="n">
         <v>106406</v>
       </c>
     </row>
@@ -610,6 +639,9 @@
         <v>712.5</v>
       </c>
       <c r="E10" t="n">
+        <v>1045</v>
+      </c>
+      <c r="F10" t="n">
         <v>106406</v>
       </c>
     </row>
@@ -627,6 +659,9 @@
         <v>1710</v>
       </c>
       <c r="E11" t="n">
+        <v>712.5</v>
+      </c>
+      <c r="F11" t="n">
         <v>106406</v>
       </c>
     </row>
@@ -644,6 +679,9 @@
         <v>997.5</v>
       </c>
       <c r="E12" t="n">
+        <v>807.5</v>
+      </c>
+      <c r="F12" t="n">
         <v>106406</v>
       </c>
     </row>
@@ -661,6 +699,9 @@
         <v>2565</v>
       </c>
       <c r="E13" t="n">
+        <v>950</v>
+      </c>
+      <c r="F13" t="n">
         <v>106406</v>
       </c>
     </row>
@@ -678,6 +719,9 @@
         <v>2992.5</v>
       </c>
       <c r="E14" t="n">
+        <v>997.5</v>
+      </c>
+      <c r="F14" t="n">
         <v>106406</v>
       </c>
     </row>
@@ -695,6 +739,9 @@
         <v>1995</v>
       </c>
       <c r="E15" t="n">
+        <v>1187.5</v>
+      </c>
+      <c r="F15" t="n">
         <v>106406</v>
       </c>
     </row>
@@ -712,6 +759,9 @@
         <v>855</v>
       </c>
       <c r="E16" t="n">
+        <v>997.5</v>
+      </c>
+      <c r="F16" t="n">
         <v>106406</v>
       </c>
     </row>
@@ -729,6 +779,9 @@
         <v>1995</v>
       </c>
       <c r="E17" t="n">
+        <v>997.5</v>
+      </c>
+      <c r="F17" t="n">
         <v>106406</v>
       </c>
     </row>
@@ -746,6 +799,9 @@
         <v>1852.5</v>
       </c>
       <c r="E18" t="n">
+        <v>807.5</v>
+      </c>
+      <c r="F18" t="n">
         <v>106406</v>
       </c>
     </row>
@@ -763,6 +819,9 @@
         <v>1852.5</v>
       </c>
       <c r="E19" t="n">
+        <v>807.5</v>
+      </c>
+      <c r="F19" t="n">
         <v>106406</v>
       </c>
     </row>
@@ -780,6 +839,9 @@
         <v>1140</v>
       </c>
       <c r="E20" t="n">
+        <v>902.5</v>
+      </c>
+      <c r="F20" t="n">
         <v>106406</v>
       </c>
     </row>
@@ -797,6 +859,9 @@
         <v>1425</v>
       </c>
       <c r="E21" t="n">
+        <v>997.5</v>
+      </c>
+      <c r="F21" t="n">
         <v>106406</v>
       </c>
     </row>
@@ -814,6 +879,9 @@
         <v>2707.5</v>
       </c>
       <c r="E22" t="n">
+        <v>1187.5</v>
+      </c>
+      <c r="F22" t="n">
         <v>106406</v>
       </c>
     </row>
@@ -831,6 +899,9 @@
         <v>712.5</v>
       </c>
       <c r="E23" t="n">
+        <v>1520</v>
+      </c>
+      <c r="F23" t="n">
         <v>106406</v>
       </c>
     </row>
@@ -848,6 +919,9 @@
         <v>1710</v>
       </c>
       <c r="E24" t="n">
+        <v>1425</v>
+      </c>
+      <c r="F24" t="n">
         <v>106406</v>
       </c>
     </row>
@@ -865,6 +939,9 @@
         <v>1995</v>
       </c>
       <c r="E25" t="n">
+        <v>1425</v>
+      </c>
+      <c r="F25" t="n">
         <v>106406</v>
       </c>
     </row>
@@ -882,6 +959,9 @@
         <v>3135</v>
       </c>
       <c r="E26" t="n">
+        <v>997.5</v>
+      </c>
+      <c r="F26" t="n">
         <v>106406</v>
       </c>
     </row>
@@ -899,6 +979,9 @@
         <v>712.5</v>
       </c>
       <c r="E27" t="n">
+        <v>950</v>
+      </c>
+      <c r="F27" t="n">
         <v>106406</v>
       </c>
     </row>
@@ -916,6 +999,9 @@
         <v>1282.5</v>
       </c>
       <c r="E28" t="n">
+        <v>855</v>
+      </c>
+      <c r="F28" t="n">
         <v>106406</v>
       </c>
     </row>
@@ -933,6 +1019,9 @@
         <v>997.5</v>
       </c>
       <c r="E29" t="n">
+        <v>950</v>
+      </c>
+      <c r="F29" t="n">
         <v>106406</v>
       </c>
     </row>
@@ -950,6 +1039,9 @@
         <v>2422.5</v>
       </c>
       <c r="E30" t="n">
+        <v>1092.5</v>
+      </c>
+      <c r="F30" t="n">
         <v>106406</v>
       </c>
     </row>
@@ -967,6 +1059,9 @@
         <v>997.5</v>
       </c>
       <c r="E31" t="n">
+        <v>950</v>
+      </c>
+      <c r="F31" t="n">
         <v>106406</v>
       </c>
     </row>
@@ -984,6 +1079,9 @@
         <v>1567.5</v>
       </c>
       <c r="E32" t="n">
+        <v>902.5</v>
+      </c>
+      <c r="F32" t="n">
         <v>106406</v>
       </c>
     </row>
@@ -1001,6 +1099,9 @@
         <v>1282.5</v>
       </c>
       <c r="E33" t="n">
+        <v>807.5</v>
+      </c>
+      <c r="F33" t="n">
         <v>106406</v>
       </c>
     </row>
@@ -1018,6 +1119,9 @@
         <v>1567.5</v>
       </c>
       <c r="E34" t="n">
+        <v>997.5</v>
+      </c>
+      <c r="F34" t="n">
         <v>106406</v>
       </c>
     </row>
@@ -1035,6 +1139,9 @@
         <v>997.5</v>
       </c>
       <c r="E35" t="n">
+        <v>1187.5</v>
+      </c>
+      <c r="F35" t="n">
         <v>106406</v>
       </c>
     </row>
@@ -1052,6 +1159,9 @@
         <v>13110</v>
       </c>
       <c r="E36" t="n">
+        <v>1187.5</v>
+      </c>
+      <c r="F36" t="n">
         <v>106406</v>
       </c>
     </row>
@@ -1069,6 +1179,9 @@
         <v>4845</v>
       </c>
       <c r="E37" t="n">
+        <v>1377.5</v>
+      </c>
+      <c r="F37" t="n">
         <v>106406</v>
       </c>
     </row>
@@ -1086,6 +1199,9 @@
         <v>855</v>
       </c>
       <c r="E38" t="n">
+        <v>1140</v>
+      </c>
+      <c r="F38" t="n">
         <v>106406</v>
       </c>
     </row>
@@ -1103,6 +1219,9 @@
         <v>2351.25</v>
       </c>
       <c r="E39" t="n">
+        <v>1377.5</v>
+      </c>
+      <c r="F39" t="n">
         <v>106406</v>
       </c>
     </row>
@@ -1120,6 +1239,9 @@
         <v>1567.5</v>
       </c>
       <c r="E40" t="n">
+        <v>1472.5</v>
+      </c>
+      <c r="F40" t="n">
         <v>106406</v>
       </c>
     </row>
@@ -1137,6 +1259,9 @@
         <v>2137.5</v>
       </c>
       <c r="E41" t="n">
+        <v>1615</v>
+      </c>
+      <c r="F41" t="n">
         <v>106406</v>
       </c>
     </row>
@@ -1154,6 +1279,9 @@
         <v>2137.5</v>
       </c>
       <c r="E42" t="n">
+        <v>1710</v>
+      </c>
+      <c r="F42" t="n">
         <v>106406</v>
       </c>
     </row>
@@ -1171,6 +1299,9 @@
         <v>4702.5</v>
       </c>
       <c r="E43" t="n">
+        <v>1282.5</v>
+      </c>
+      <c r="F43" t="n">
         <v>106406</v>
       </c>
     </row>
@@ -1188,6 +1319,9 @@
         <v>8122.5</v>
       </c>
       <c r="E44" t="n">
+        <v>1330</v>
+      </c>
+      <c r="F44" t="n">
         <v>106406</v>
       </c>
     </row>
@@ -1205,6 +1339,9 @@
         <v>3705</v>
       </c>
       <c r="E45" t="n">
+        <v>997.5</v>
+      </c>
+      <c r="F45" t="n">
         <v>106406</v>
       </c>
     </row>
@@ -1222,6 +1359,9 @@
         <v>2992.5</v>
       </c>
       <c r="E46" t="n">
+        <v>1140</v>
+      </c>
+      <c r="F46" t="n">
         <v>106406</v>
       </c>
     </row>
@@ -1239,6 +1379,9 @@
         <v>2850</v>
       </c>
       <c r="E47" t="n">
+        <v>1140</v>
+      </c>
+      <c r="F47" t="n">
         <v>106406</v>
       </c>
     </row>
@@ -1256,6 +1399,9 @@
         <v>7125</v>
       </c>
       <c r="E48" t="n">
+        <v>1140</v>
+      </c>
+      <c r="F48" t="n">
         <v>106406</v>
       </c>
     </row>
@@ -1273,6 +1419,9 @@
         <v>4275</v>
       </c>
       <c r="E49" t="n">
+        <v>1282.5</v>
+      </c>
+      <c r="F49" t="n">
         <v>106406</v>
       </c>
     </row>
@@ -1290,6 +1439,9 @@
         <v>2280</v>
       </c>
       <c r="E50" t="n">
+        <v>1282.5</v>
+      </c>
+      <c r="F50" t="n">
         <v>106406</v>
       </c>
     </row>
@@ -1307,6 +1459,9 @@
         <v>13252.5</v>
       </c>
       <c r="E51" t="n">
+        <v>1472.5</v>
+      </c>
+      <c r="F51" t="n">
         <v>106406</v>
       </c>
     </row>
@@ -1324,6 +1479,9 @@
         <v>2137.5</v>
       </c>
       <c r="E52" t="n">
+        <v>1282.5</v>
+      </c>
+      <c r="F52" t="n">
         <v>106406</v>
       </c>
     </row>
@@ -1341,6 +1499,9 @@
         <v>3277.5</v>
       </c>
       <c r="E53" t="n">
+        <v>6127.5</v>
+      </c>
+      <c r="F53" t="n">
         <v>106406</v>
       </c>
     </row>
@@ -1358,6 +1519,9 @@
         <v>2280</v>
       </c>
       <c r="E54" t="n">
+        <v>6555</v>
+      </c>
+      <c r="F54" t="n">
         <v>106406</v>
       </c>
     </row>
@@ -1375,6 +1539,9 @@
         <v>9405</v>
       </c>
       <c r="E55" t="n">
+        <v>5985</v>
+      </c>
+      <c r="F55" t="n">
         <v>106406</v>
       </c>
     </row>
@@ -1392,6 +1559,9 @@
         <v>3562.5</v>
       </c>
       <c r="E56" t="n">
+        <v>4227.5</v>
+      </c>
+      <c r="F56" t="n">
         <v>106406</v>
       </c>
     </row>
@@ -1409,6 +1579,9 @@
         <v>5700</v>
       </c>
       <c r="E57" t="n">
+        <v>2683.75</v>
+      </c>
+      <c r="F57" t="n">
         <v>106406</v>
       </c>
     </row>
@@ -1426,6 +1599,9 @@
         <v>6412.5</v>
       </c>
       <c r="E58" t="n">
+        <v>1591.25</v>
+      </c>
+      <c r="F58" t="n">
         <v>106406</v>
       </c>
     </row>
@@ -1443,6 +1619,9 @@
         <v>5415</v>
       </c>
       <c r="E59" t="n">
+        <v>2018.75</v>
+      </c>
+      <c r="F59" t="n">
         <v>106406</v>
       </c>
     </row>
@@ -1460,6 +1639,9 @@
         <v>3277.5</v>
       </c>
       <c r="E60" t="n">
+        <v>1947.5</v>
+      </c>
+      <c r="F60" t="n">
         <v>106406</v>
       </c>
     </row>
@@ -1477,6 +1659,9 @@
         <v>3847.5</v>
       </c>
       <c r="E61" t="n">
+        <v>2232.5</v>
+      </c>
+      <c r="F61" t="n">
         <v>106406</v>
       </c>
     </row>
@@ -1494,6 +1679,9 @@
         <v>9690</v>
       </c>
       <c r="E62" t="n">
+        <v>2280</v>
+      </c>
+      <c r="F62" t="n">
         <v>106406</v>
       </c>
     </row>
@@ -1511,6 +1699,9 @@
         <v>2137.5</v>
       </c>
       <c r="E63" t="n">
+        <v>2470</v>
+      </c>
+      <c r="F63" t="n">
         <v>106406</v>
       </c>
     </row>
@@ -1528,6 +1719,9 @@
         <v>2707.5</v>
       </c>
       <c r="E64" t="n">
+        <v>3467.5</v>
+      </c>
+      <c r="F64" t="n">
         <v>106406</v>
       </c>
     </row>
@@ -1545,6 +1739,9 @@
         <v>1852.5</v>
       </c>
       <c r="E65" t="n">
+        <v>3325</v>
+      </c>
+      <c r="F65" t="n">
         <v>106406</v>
       </c>
     </row>
@@ -1562,6 +1759,9 @@
         <v>4417.5</v>
       </c>
       <c r="E66" t="n">
+        <v>3040</v>
+      </c>
+      <c r="F66" t="n">
         <v>106406</v>
       </c>
     </row>
@@ -1579,6 +1779,9 @@
         <v>2280</v>
       </c>
       <c r="E67" t="n">
+        <v>2232.5</v>
+      </c>
+      <c r="F67" t="n">
         <v>106406</v>
       </c>
     </row>
@@ -1596,6 +1799,9 @@
         <v>4275</v>
       </c>
       <c r="E68" t="n">
+        <v>2565</v>
+      </c>
+      <c r="F68" t="n">
         <v>106968</v>
       </c>
     </row>
@@ -1613,6 +1819,9 @@
         <v>10402.5</v>
       </c>
       <c r="E69" t="n">
+        <v>2802.5</v>
+      </c>
+      <c r="F69" t="n">
         <v>106968</v>
       </c>
     </row>
@@ -1630,6 +1839,9 @@
         <v>4132.5</v>
       </c>
       <c r="E70" t="n">
+        <v>3325</v>
+      </c>
+      <c r="F70" t="n">
         <v>106968</v>
       </c>
     </row>
@@ -1647,6 +1859,9 @@
         <v>5985</v>
       </c>
       <c r="E71" t="n">
+        <v>3230</v>
+      </c>
+      <c r="F71" t="n">
         <v>106968</v>
       </c>
     </row>
@@ -1664,6 +1879,9 @@
         <v>11257.5</v>
       </c>
       <c r="E72" t="n">
+        <v>2945</v>
+      </c>
+      <c r="F72" t="n">
         <v>106968</v>
       </c>
     </row>
@@ -1681,6 +1899,9 @@
         <v>5842.5</v>
       </c>
       <c r="E73" t="n">
+        <v>2185</v>
+      </c>
+      <c r="F73" t="n">
         <v>106968</v>
       </c>
     </row>
@@ -1698,6 +1919,9 @@
         <v>11400</v>
       </c>
       <c r="E74" t="n">
+        <v>2612.5</v>
+      </c>
+      <c r="F74" t="n">
         <v>106968</v>
       </c>
     </row>
@@ -1715,6 +1939,9 @@
         <v>10545</v>
       </c>
       <c r="E75" t="n">
+        <v>3562.5</v>
+      </c>
+      <c r="F75" t="n">
         <v>106968</v>
       </c>
     </row>
@@ -1732,6 +1959,9 @@
         <v>15532.5</v>
       </c>
       <c r="E76" t="n">
+        <v>4417.5</v>
+      </c>
+      <c r="F76" t="n">
         <v>106968</v>
       </c>
     </row>
@@ -1749,6 +1979,9 @@
         <v>10402.5</v>
       </c>
       <c r="E77" t="n">
+        <v>3847.5</v>
+      </c>
+      <c r="F77" t="n">
         <v>106968</v>
       </c>
     </row>
@@ -1766,6 +1999,9 @@
         <v>13680</v>
       </c>
       <c r="E78" t="n">
+        <v>3420</v>
+      </c>
+      <c r="F78" t="n">
         <v>106968</v>
       </c>
     </row>
@@ -1783,6 +2019,9 @@
         <v>8835</v>
       </c>
       <c r="E79" t="n">
+        <v>2565</v>
+      </c>
+      <c r="F79" t="n">
         <v>106968</v>
       </c>
     </row>
@@ -1800,6 +2039,9 @@
         <v>11400</v>
       </c>
       <c r="E80" t="n">
+        <v>2945</v>
+      </c>
+      <c r="F80" t="n">
         <v>106968</v>
       </c>
     </row>
@@ -1817,6 +2059,9 @@
         <v>9832.5</v>
       </c>
       <c r="E81" t="n">
+        <v>3895</v>
+      </c>
+      <c r="F81" t="n">
         <v>106968</v>
       </c>
     </row>
@@ -1834,6 +2079,9 @@
         <v>6982.5</v>
       </c>
       <c r="E82" t="n">
+        <v>4322.5</v>
+      </c>
+      <c r="F82" t="n">
         <v>106968</v>
       </c>
     </row>
@@ -1851,6 +2099,9 @@
         <v>12255</v>
       </c>
       <c r="E83" t="n">
+        <v>5130</v>
+      </c>
+      <c r="F83" t="n">
         <v>106968</v>
       </c>
     </row>
@@ -1868,6 +2119,9 @@
         <v>5557.5</v>
       </c>
       <c r="E84" t="n">
+        <v>5225</v>
+      </c>
+      <c r="F84" t="n">
         <v>106968</v>
       </c>
     </row>
@@ -1885,6 +2139,9 @@
         <v>7980</v>
       </c>
       <c r="E85" t="n">
+        <v>5842.5</v>
+      </c>
+      <c r="F85" t="n">
         <v>106968</v>
       </c>
     </row>
@@ -1902,6 +2159,9 @@
         <v>8265</v>
       </c>
       <c r="E86" t="n">
+        <v>5035</v>
+      </c>
+      <c r="F86" t="n">
         <v>106968</v>
       </c>
     </row>
@@ -1919,6 +2179,9 @@
         <v>10260</v>
       </c>
       <c r="E87" t="n">
+        <v>4180</v>
+      </c>
+      <c r="F87" t="n">
         <v>106968</v>
       </c>
     </row>
@@ -1936,6 +2199,9 @@
         <v>10545</v>
       </c>
       <c r="E88" t="n">
+        <v>5605</v>
+      </c>
+      <c r="F88" t="n">
         <v>106968</v>
       </c>
     </row>
@@ -1953,6 +2219,9 @@
         <v>14677.5</v>
       </c>
       <c r="E89" t="n">
+        <v>5225</v>
+      </c>
+      <c r="F89" t="n">
         <v>106968</v>
       </c>
     </row>
@@ -1970,6 +2239,9 @@
         <v>11115</v>
       </c>
       <c r="E90" t="n">
+        <v>4845</v>
+      </c>
+      <c r="F90" t="n">
         <v>106968</v>
       </c>
     </row>
@@ -1987,6 +2259,9 @@
         <v>11400</v>
       </c>
       <c r="E91" t="n">
+        <v>2232.5</v>
+      </c>
+      <c r="F91" t="n">
         <v>106968</v>
       </c>
     </row>
@@ -2004,6 +2279,9 @@
         <v>12967.5</v>
       </c>
       <c r="E92" t="n">
+        <v>2992.5</v>
+      </c>
+      <c r="F92" t="n">
         <v>106968</v>
       </c>
     </row>
@@ -2021,6 +2299,9 @@
         <v>15960</v>
       </c>
       <c r="E93" t="n">
+        <v>2850</v>
+      </c>
+      <c r="F93" t="n">
         <v>106968</v>
       </c>
     </row>
@@ -2038,6 +2319,9 @@
         <v>1995</v>
       </c>
       <c r="E94" t="n">
+        <v>3420</v>
+      </c>
+      <c r="F94" t="n">
         <v>106968</v>
       </c>
     </row>
@@ -2055,6 +2339,9 @@
         <v>8407.5</v>
       </c>
       <c r="E95" t="n">
+        <v>2137.5</v>
+      </c>
+      <c r="F95" t="n">
         <v>106968</v>
       </c>
     </row>
@@ -2072,6 +2359,9 @@
         <v>7410</v>
       </c>
       <c r="E96" t="n">
+        <v>3040</v>
+      </c>
+      <c r="F96" t="n">
         <v>106968</v>
       </c>
     </row>
@@ -2089,6 +2379,9 @@
         <v>9120</v>
       </c>
       <c r="E97" t="n">
+        <v>2802.5</v>
+      </c>
+      <c r="F97" t="n">
         <v>106968</v>
       </c>
     </row>
@@ -2106,6 +2399,9 @@
         <v>6697.5</v>
       </c>
       <c r="E98" t="n">
+        <v>3467.5</v>
+      </c>
+      <c r="F98" t="n">
         <v>106968</v>
       </c>
     </row>
@@ -2123,6 +2419,9 @@
         <v>17812.5</v>
       </c>
       <c r="E99" t="n">
+        <v>3040</v>
+      </c>
+      <c r="F99" t="n">
         <v>106968</v>
       </c>
     </row>
@@ -2140,6 +2439,9 @@
         <v>19665</v>
       </c>
       <c r="E100" t="n">
+        <v>2327.5</v>
+      </c>
+      <c r="F100" t="n">
         <v>106968</v>
       </c>
     </row>
@@ -2157,6 +2459,9 @@
         <v>997.5</v>
       </c>
       <c r="E101" t="n">
+        <v>3372.5</v>
+      </c>
+      <c r="F101" t="n">
         <v>106968</v>
       </c>
     </row>
@@ -2174,6 +2479,9 @@
         <v>6982.5</v>
       </c>
       <c r="E102" t="n">
+        <v>4607.5</v>
+      </c>
+      <c r="F102" t="n">
         <v>106968</v>
       </c>
     </row>
@@ -2191,6 +2499,9 @@
         <v>11685</v>
       </c>
       <c r="E103" t="n">
+        <v>5320</v>
+      </c>
+      <c r="F103" t="n">
         <v>106968</v>
       </c>
     </row>
@@ -2208,6 +2519,9 @@
         <v>3562.5</v>
       </c>
       <c r="E104" t="n">
+        <v>3752.5</v>
+      </c>
+      <c r="F104" t="n">
         <v>106968</v>
       </c>
     </row>
